--- a/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>IMUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,93 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -755,17 +766,17 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -775,8 +786,17 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -789,8 +809,8 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -807,8 +827,8 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -819,8 +839,17 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,8 +862,8 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -843,17 +872,17 @@
         <v>4</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
@@ -863,8 +892,17 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,34 +919,37 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>300</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>100</v>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
@@ -917,16 +958,25 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,16 +1019,25 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -987,34 +1046,43 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="S14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1125,17 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1149,117 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>-300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>4100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-2100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1276,117 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3">
+        <v>900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-4100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-3400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-1500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-4100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,87 +1394,105 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>400</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
+        <v>400</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="R22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
         <v>-800</v>
       </c>
       <c r="F23" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="G23" s="3">
         <v>-900</v>
       </c>
       <c r="H23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-3800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-5200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1535,17 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1588,123 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
         <v>-800</v>
       </c>
       <c r="F26" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="G26" s="3">
         <v>-900</v>
       </c>
       <c r="H26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-4300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-3800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-5200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
         <v>-800</v>
       </c>
       <c r="F27" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="G27" s="3">
         <v>-900</v>
       </c>
       <c r="H27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-3600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-5100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1747,17 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1800,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1853,17 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1906,123 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>400</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
         <v>-800</v>
       </c>
       <c r="F33" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="G33" s="3">
         <v>-900</v>
       </c>
       <c r="H33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-3600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-5100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +2065,128 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
         <v>-800</v>
       </c>
       <c r="F35" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="G35" s="3">
         <v>-900</v>
       </c>
       <c r="H35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-3600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-5100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2203,11 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2224,11 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2003,16 +2263,25 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2324,17 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,31 +2377,40 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="J44" s="3">
         <v>100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
@@ -2131,20 +2418,29 @@
       <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>200</v>
+      </c>
+      <c r="N44" s="3">
+        <v>200</v>
+      </c>
+      <c r="O44" s="3">
+        <v>200</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2483,17 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2199,19 +2504,19 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
@@ -2220,33 +2525,42 @@
         <v>200</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -2254,14 +2568,14 @@
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
@@ -2275,8 +2589,17 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,8 +2642,17 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2695,17 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2748,17 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2801,17 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2854,17 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2907,17 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2551,19 +2928,19 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>200</v>
-      </c>
-      <c r="I54" s="3">
-        <v>200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>200</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
@@ -2572,19 +2949,28 @@
         <v>200</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N54" s="3">
+        <v>200</v>
+      </c>
+      <c r="O54" s="3">
+        <v>200</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2987,11 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +3008,64 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,19 +3073,19 @@
         <v>5600</v>
       </c>
       <c r="E58" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="F58" s="3">
         <v>5500</v>
       </c>
       <c r="G58" s="3">
-        <v>5200</v>
+        <v>5600</v>
       </c>
       <c r="H58" s="3">
-        <v>4800</v>
+        <v>5600</v>
       </c>
       <c r="I58" s="3">
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="J58" s="3">
         <v>5200</v>
@@ -2696,107 +3097,134 @@
         <v>4400</v>
       </c>
       <c r="M58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="O58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P58" s="3">
         <v>4300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>4700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>4200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G59" s="3">
         <v>5600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>4800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>4600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>3800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>4000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>3200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>13700</v>
+      </c>
+      <c r="G60" s="3">
         <v>13500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>12600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>11800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>11300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>10900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>9800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>11400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>11300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>8600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>7900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>10400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>9200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3267,17 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3320,17 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3373,17 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3426,17 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3479,70 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>13700</v>
+      </c>
+      <c r="G66" s="3">
         <v>13500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>12600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>11800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>11300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>10900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>9800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>6600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>6700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>6300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>5200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3559,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3606,17 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3659,17 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3712,17 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3765,70 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-386200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-385400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-384600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-383700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-382700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-389900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-381200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-380300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-377700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-373600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-373000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-369400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-368000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-368300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-365700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-362300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3871,17 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3924,17 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3977,70 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="G76" s="3">
         <v>-13500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-12500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-11800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-11300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-10700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-9600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-6400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-6500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-3900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-6200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-5100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +4083,128 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
         <v>-800</v>
       </c>
       <c r="F81" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="G81" s="3">
         <v>-900</v>
       </c>
       <c r="H81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-3600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-5100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4221,11 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4268,17 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4321,17 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4374,17 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4427,17 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4480,17 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,13 +4533,22 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -3907,37 +4557,46 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-400</v>
       </c>
       <c r="L89" s="3">
         <v>-400</v>
       </c>
       <c r="M89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4613,11 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3968,14 +4630,14 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3986,20 +4648,29 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4713,17 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,16 +4766,25 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4124,14 +4813,23 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4846,11 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4893,17 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4946,17 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4999,17 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +5052,70 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>500</v>
-      </c>
-      <c r="K100" s="3">
-        <v>400</v>
       </c>
       <c r="L100" s="3">
         <v>400</v>
       </c>
       <c r="M100" s="3">
+        <v>500</v>
+      </c>
+      <c r="N100" s="3">
+        <v>400</v>
+      </c>
+      <c r="O100" s="3">
+        <v>400</v>
+      </c>
+      <c r="P100" s="3">
         <v>700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +5158,17 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4445,15 +5200,24 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>IMUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,8 +757,8 @@
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -775,11 +779,11 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,20 +825,20 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -871,21 +881,21 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,46 +935,47 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3">
-        <v>100</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -973,10 +987,13 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,19 +1045,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>-3300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1055,34 +1075,37 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1216,50 +1246,53 @@
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1290,36 +1324,36 @@
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1343,50 +1380,53 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-600</v>
       </c>
       <c r="J21" s="3">
         <v>-600</v>
       </c>
       <c r="K21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L21" s="3">
         <v>-2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,102 +1437,108 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-800</v>
+        <v>4100</v>
       </c>
       <c r="E23" s="3">
         <v>-800</v>
       </c>
       <c r="F23" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="G23" s="3">
         <v>-900</v>
       </c>
       <c r="H23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-800</v>
+        <v>4100</v>
       </c>
       <c r="E26" s="3">
         <v>-800</v>
       </c>
       <c r="F26" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="G26" s="3">
         <v>-900</v>
       </c>
       <c r="H26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-800</v>
+        <v>4100</v>
       </c>
       <c r="E27" s="3">
         <v>-800</v>
       </c>
       <c r="F27" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="G27" s="3">
         <v>-900</v>
       </c>
       <c r="H27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1926,36 +1996,36 @@
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-800</v>
+        <v>4100</v>
       </c>
       <c r="E33" s="3">
         <v>-800</v>
       </c>
       <c r="F33" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="G33" s="3">
         <v>-900</v>
       </c>
       <c r="H33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-800</v>
+        <v>4100</v>
       </c>
       <c r="E35" s="3">
         <v>-800</v>
       </c>
       <c r="F35" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="G35" s="3">
         <v>-900</v>
       </c>
       <c r="H35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2272,16 +2359,19 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2397,8 +2493,8 @@
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2407,13 +2503,13 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
       <c r="K44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
@@ -2427,8 +2523,8 @@
       <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="P44" s="3">
+        <v>200</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2513,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
@@ -2534,19 +2636,22 @@
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2577,8 +2682,8 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2937,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
@@ -2958,19 +3084,22 @@
         <v>200</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
       <c r="S54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3023,208 +3154,220 @@
         <v>2800</v>
       </c>
       <c r="F57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>5600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>5500</v>
       </c>
       <c r="F58" s="3">
         <v>5500</v>
       </c>
       <c r="G58" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="H58" s="3">
         <v>5600</v>
       </c>
       <c r="I58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J58" s="3">
         <v>5500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E59" s="3">
         <v>7000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E60" s="3">
         <v>15300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E66" s="3">
         <v>15300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>5200</v>
       </c>
       <c r="S66" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-382100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-386200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-385400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-384600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-383700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-382700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-389900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-381200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-380300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-377700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-373600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-373000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-369400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-368000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-368300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-365700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-362300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-15300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-14500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-13700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-13500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-12500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-11800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-11300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-10700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-6500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-6200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-5100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-800</v>
+        <v>4100</v>
       </c>
       <c r="E81" s="3">
         <v>-800</v>
       </c>
       <c r="F81" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="G81" s="3">
         <v>-900</v>
       </c>
       <c r="H81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4551,7 +4768,7 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -4566,37 +4783,40 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-400</v>
       </c>
       <c r="O89" s="3">
         <v>-400</v>
       </c>
       <c r="P89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-500</v>
       </c>
       <c r="R89" s="3">
         <v>-500</v>
       </c>
       <c r="S89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4639,8 +4860,8 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4657,8 +4878,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4786,8 +5016,8 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4822,14 +5052,17 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,19 +5304,22 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>100</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5085,37 +5331,40 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
-      </c>
-      <c r="N100" s="3">
-        <v>400</v>
       </c>
       <c r="O100" s="3">
         <v>400</v>
       </c>
       <c r="P100" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q100" s="3">
         <v>700</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>600</v>
       </c>
       <c r="R100" s="3">
         <v>600</v>
       </c>
       <c r="S100" s="3">
+        <v>600</v>
+      </c>
+      <c r="T100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5209,15 +5461,18 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>IMUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,111 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -782,17 +793,17 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -802,8 +813,17 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +848,8 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -846,8 +866,8 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3">
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -858,8 +878,17 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +913,8 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -894,17 +923,17 @@
         <v>4</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
@@ -914,8 +943,17 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,46 +974,49 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
-        <v>100</v>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
@@ -984,16 +1025,25 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
       </c>
       <c r="T12" s="3">
+        <v>100</v>
+      </c>
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+      <c r="W12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,28 +1098,37 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G14" s="3">
         <v>-3300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1078,34 +1137,43 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-1600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="U14" s="3">
         <v>600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="W14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1228,17 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1256,141 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>-3200</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>-300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>2100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>4100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
+      <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>-2100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>-4100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,232 +1411,271 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-600</v>
       </c>
       <c r="G20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>-1700</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-700</v>
       </c>
       <c r="G21" s="3">
-        <v>-400</v>
+        <v>4200</v>
       </c>
       <c r="H21" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="I21" s="3">
         <v>-700</v>
       </c>
       <c r="J21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-4100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-3400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>-2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>-4100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>500</v>
+      </c>
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>400</v>
       </c>
       <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
+        <v>400</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="U22" s="3">
         <v>600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="V22" s="3">
         <v>1100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="W22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G23" s="3">
         <v>4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-900</v>
       </c>
       <c r="I23" s="3">
         <v>-800</v>
       </c>
       <c r="J23" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="K23" s="3">
         <v>-900</v>
       </c>
       <c r="L23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-4300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-3800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-5200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1730,17 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1795,147 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G26" s="3">
         <v>4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-900</v>
       </c>
       <c r="I26" s="3">
         <v>-800</v>
       </c>
       <c r="J26" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="K26" s="3">
         <v>-900</v>
       </c>
       <c r="L26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-4300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-3800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-5200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G27" s="3">
         <v>4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-900</v>
       </c>
       <c r="I27" s="3">
         <v>-800</v>
       </c>
       <c r="J27" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="K27" s="3">
         <v>-900</v>
       </c>
       <c r="L27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-5100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1990,17 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +2055,17 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2120,17 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2185,147 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>600</v>
       </c>
       <c r="G32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>1700</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G33" s="3">
         <v>4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-900</v>
       </c>
       <c r="I33" s="3">
         <v>-800</v>
       </c>
       <c r="J33" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="K33" s="3">
         <v>-900</v>
       </c>
       <c r="L33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-3600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-5100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2380,152 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G35" s="3">
         <v>4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-900</v>
       </c>
       <c r="I35" s="3">
         <v>-800</v>
       </c>
       <c r="J35" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="K35" s="3">
         <v>-900</v>
       </c>
       <c r="L35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-3600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-5100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2546,11 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2571,11 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2362,16 +2622,25 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2695,17 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,19 +2760,28 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2506,19 +2793,19 @@
         <v>0</v>
       </c>
       <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>200</v>
-      </c>
-      <c r="M44" s="3">
-        <v>200</v>
-      </c>
-      <c r="N44" s="3">
-        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
@@ -2526,20 +2813,29 @@
       <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
+      <c r="Q44" s="3">
+        <v>200</v>
+      </c>
+      <c r="R44" s="3">
+        <v>200</v>
+      </c>
+      <c r="S44" s="3">
+        <v>200</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2890,17 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2618,19 +2923,19 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
@@ -2639,19 +2944,28 @@
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2685,14 +2999,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
@@ -2706,16 +3020,25 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2762,8 +3085,17 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3150,17 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3215,17 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3280,17 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3345,17 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3410,17 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3066,19 +3443,19 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>200</v>
-      </c>
-      <c r="N54" s="3">
-        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
@@ -3087,19 +3464,28 @@
         <v>200</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R54" s="3">
+        <v>200</v>
+      </c>
+      <c r="S54" s="3">
+        <v>200</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="V54" s="3">
         <v>100</v>
       </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3506,11 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,81 +3531,93 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>1800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="W57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
-        <v>5600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>5500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>5500</v>
-      </c>
       <c r="H58" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="I58" s="3">
         <v>5600</v>
@@ -3225,13 +3626,13 @@
         <v>5500</v>
       </c>
       <c r="K58" s="3">
-        <v>5200</v>
+        <v>5600</v>
       </c>
       <c r="L58" s="3">
-        <v>4800</v>
+        <v>5600</v>
       </c>
       <c r="M58" s="3">
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="N58" s="3">
         <v>5200</v>
@@ -3243,131 +3644,158 @@
         <v>4400</v>
       </c>
       <c r="Q58" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R58" s="3">
+        <v>4800</v>
+      </c>
+      <c r="S58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="T58" s="3">
         <v>4300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>4700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="V58" s="3">
         <v>4200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="W58" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="E59" s="3">
-        <v>7000</v>
+        <v>4300</v>
       </c>
       <c r="F59" s="3">
-        <v>6200</v>
+        <v>5700</v>
       </c>
       <c r="G59" s="3">
         <v>5500</v>
       </c>
       <c r="H59" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K59" s="3">
         <v>5600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>4800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>4600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>3800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>4200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>4000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>3200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G60" s="3">
         <v>11200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>15300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>14500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>13700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>13500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>12600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>11800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>11300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>10900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>9800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>11400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>11300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>8600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>7900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>10400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>9200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3850,17 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3915,17 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3980,17 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +4045,17 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +4110,82 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>11700</v>
+      </c>
+      <c r="G66" s="3">
         <v>11200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>15300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>14500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>13700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>13500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>12600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>11800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>11300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>10900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>9800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>6600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>6700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>4100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>6300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>5200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4206,11 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4265,17 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4330,17 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4395,17 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4460,82 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-382300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-382200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-383000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-382100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-386200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-385400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-384600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-383700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-382700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-389900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-381200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-380300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-377700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-373600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-373000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-369400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-368000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-368300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-365700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-362300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4590,17 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4655,17 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4720,82 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="G76" s="3">
         <v>-11200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-15300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-14500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-13700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-13500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-12500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-11800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-11300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-10700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-9600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-6400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-6500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-3600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>-6200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-5100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4850,152 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G81" s="3">
         <v>4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-900</v>
       </c>
       <c r="I81" s="3">
         <v>-800</v>
       </c>
       <c r="J81" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="K81" s="3">
         <v>-900</v>
       </c>
       <c r="L81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-3600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-5100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +5016,11 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +5075,17 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +5140,17 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5205,17 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5270,17 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5335,17 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5400,17 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,16 +5418,16 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -4786,37 +5436,46 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-400</v>
       </c>
       <c r="P89" s="3">
         <v>-400</v>
       </c>
       <c r="Q89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,40 +5496,43 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4881,20 +5543,29 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5620,17 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,19 +5685,28 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5055,14 +5744,23 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5781,11 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5840,17 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5905,17 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5970,17 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +6035,82 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>400</v>
-      </c>
-      <c r="N100" s="3">
-        <v>500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>400</v>
       </c>
       <c r="P100" s="3">
         <v>400</v>
       </c>
       <c r="Q100" s="3">
+        <v>500</v>
+      </c>
+      <c r="R100" s="3">
+        <v>400</v>
+      </c>
+      <c r="S100" s="3">
+        <v>400</v>
+      </c>
+      <c r="T100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="W100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +6165,17 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5464,15 +6219,24 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>IMUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,11 +806,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,20 +864,20 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,21 +932,21 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,58 +990,59 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3">
-        <v>100</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
@@ -1040,10 +1054,13 @@
         <v>100</v>
       </c>
       <c r="W12" s="3">
+        <v>100</v>
+      </c>
+      <c r="X12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,31 +1124,34 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-3300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1146,34 +1166,37 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-1600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-3200</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>-300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,50 +1457,50 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1700</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,64 +1525,67 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-700</v>
       </c>
       <c r="I21" s="3">
         <v>-700</v>
       </c>
       <c r="J21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-600</v>
       </c>
       <c r="N21" s="3">
         <v>-600</v>
       </c>
       <c r="O21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P21" s="3">
         <v>-2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,13 +1593,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1568,114 +1608,120 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
-      </c>
-      <c r="P22" s="3">
-        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
       </c>
       <c r="R22" s="3">
+        <v>200</v>
+      </c>
+      <c r="S22" s="3">
         <v>400</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
       <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>1100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-800</v>
       </c>
       <c r="I23" s="3">
         <v>-800</v>
       </c>
       <c r="J23" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K23" s="3">
         <v>-900</v>
       </c>
       <c r="L23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-800</v>
       </c>
       <c r="I26" s="3">
         <v>-800</v>
       </c>
       <c r="J26" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K26" s="3">
         <v>-900</v>
       </c>
       <c r="L26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-800</v>
       </c>
       <c r="I27" s="3">
         <v>-800</v>
       </c>
       <c r="J27" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K27" s="3">
         <v>-900</v>
       </c>
       <c r="L27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,50 +2273,50 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1700</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-800</v>
       </c>
       <c r="I33" s="3">
         <v>-800</v>
       </c>
       <c r="J33" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K33" s="3">
         <v>-900</v>
       </c>
       <c r="L33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-800</v>
       </c>
       <c r="I35" s="3">
         <v>-800</v>
       </c>
       <c r="J35" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K35" s="3">
         <v>-900</v>
       </c>
       <c r="L35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2631,39 +2718,42 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>2700</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2802,13 +2898,13 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
@@ -2822,8 +2918,8 @@
       <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
+      <c r="T44" s="3">
+        <v>200</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,13 +2998,16 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2932,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
@@ -2953,19 +3055,22 @@
         <v>200</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
       <c r="W46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3008,8 +3113,8 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3040,8 +3148,8 @@
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,13 +3542,16 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3452,13 +3578,13 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
@@ -3473,19 +3599,22 @@
         <v>200</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>100</v>
       </c>
       <c r="W54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,22 +3664,23 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2800</v>
       </c>
       <c r="H57" s="3">
         <v>2800</v>
@@ -3558,244 +3689,256 @@
         <v>2800</v>
       </c>
       <c r="J57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E58" s="3">
         <v>3800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>5600</v>
       </c>
       <c r="L58" s="3">
         <v>5600</v>
       </c>
       <c r="M58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="N58" s="3">
         <v>5500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E59" s="3">
         <v>4500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E60" s="3">
         <v>10900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E66" s="3">
         <v>10900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6300</v>
-      </c>
-      <c r="V66" s="3">
-        <v>5200</v>
       </c>
       <c r="W66" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-379200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-382300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-382200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-383000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-382100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-386200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-385400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-384600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-383700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-382700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-389900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-381200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-380300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-377700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-373600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-373000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-369400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-368000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-368300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-365700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-362300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-10700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-11700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-11200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-15300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-14500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-13700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-13500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-12500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-11800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-11300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-10700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-6400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-6200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-5100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-800</v>
       </c>
       <c r="I81" s="3">
         <v>-800</v>
       </c>
       <c r="J81" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K81" s="3">
         <v>-900</v>
       </c>
       <c r="L81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5418,19 +5635,19 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -5445,37 +5662,40 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-400</v>
       </c>
       <c r="S89" s="3">
         <v>-400</v>
       </c>
       <c r="T89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U89" s="3">
         <v>-700</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-500</v>
       </c>
       <c r="V89" s="3">
         <v>-500</v>
       </c>
       <c r="W89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5525,8 +5746,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -5534,8 +5755,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5552,8 +5773,8 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5753,14 +5983,17 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,31 +6287,34 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>100</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -6080,37 +6326,40 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
-      </c>
-      <c r="R100" s="3">
-        <v>400</v>
       </c>
       <c r="S100" s="3">
         <v>400</v>
       </c>
       <c r="T100" s="3">
+        <v>400</v>
+      </c>
+      <c r="U100" s="3">
         <v>700</v>
-      </c>
-      <c r="U100" s="3">
-        <v>600</v>
       </c>
       <c r="V100" s="3">
         <v>600</v>
       </c>
       <c r="W100" s="3">
+        <v>600</v>
+      </c>
+      <c r="X100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6228,15 +6480,18 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>IMUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,111 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,14 +816,14 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
@@ -829,8 +836,14 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,23 +880,23 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
+      <c r="T9" s="3">
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -897,8 +910,14 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,24 +954,24 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,8 +984,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,64 +1016,66 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
-      </c>
-      <c r="R12" s="3">
-        <v>100</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
@@ -1057,10 +1084,16 @@
         <v>100</v>
       </c>
       <c r="X12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,37 +1160,43 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-3300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1169,39 +1208,45 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>700</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-1600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1337,84 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-500</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>-3200</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
-      </c>
       <c r="K17" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
       </c>
       <c r="M17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>-300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>4100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1366,64 +1425,70 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-400</v>
-      </c>
       <c r="K18" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-400</v>
       </c>
       <c r="M18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-2100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-4100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1513,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1460,53 +1527,53 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1700</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1516,8 +1583,14 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,203 +1598,221 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>900</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>4200</v>
       </c>
       <c r="I21" s="3">
         <v>-700</v>
       </c>
       <c r="J21" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-4100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-3400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-2100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-4100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>1100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-4300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-5200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-4300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-5200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-4000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-3600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-5100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2397,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2276,53 +2415,53 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1700</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2332,76 +2471,88 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-4000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-3600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-5100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-4000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-3600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-5100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,16 +2832,18 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2721,28 +2894,34 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F42" s="3">
         <v>2700</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2755,11 +2934,11 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2797,8 +2976,14 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +3050,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2901,16 +3092,16 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>100</v>
-      </c>
-      <c r="P44" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>200</v>
       </c>
       <c r="R44" s="3">
         <v>200</v>
@@ -2921,11 +3112,11 @@
       <c r="T44" s="3">
         <v>200</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
+      <c r="U44" s="3">
+        <v>200</v>
+      </c>
+      <c r="V44" s="3">
+        <v>200</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>4</v>
@@ -2933,8 +3124,14 @@
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,20 +3198,26 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F46" s="3">
         <v>2700</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -3037,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
@@ -3058,19 +3261,25 @@
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
         <v>100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3116,11 +3325,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
@@ -3137,8 +3346,14 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3151,11 +3366,11 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -3205,8 +3420,14 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,13 +3642,19 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3477,8 +3716,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,20 +3790,26 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F54" s="3">
         <v>2700</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -3581,16 +3832,16 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
@@ -3602,19 +3853,25 @@
         <v>200</v>
       </c>
       <c r="U54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V54" s="3">
+        <v>200</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
         <v>100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>100</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3924,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,271 +3935,295 @@
         <v>2200</v>
       </c>
       <c r="E57" s="3">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="F57" s="3">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="G57" s="3">
         <v>2600</v>
       </c>
       <c r="H57" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I57" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="J57" s="3">
         <v>2800</v>
       </c>
       <c r="K57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2000</v>
       </c>
       <c r="O57" s="3">
         <v>2100</v>
       </c>
       <c r="P57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2200</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="V57" s="3">
-        <v>1700</v>
       </c>
       <c r="W57" s="3">
         <v>1800</v>
       </c>
       <c r="X57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Z57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F58" s="3">
         <v>3900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>5700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>5600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>5500</v>
       </c>
       <c r="L58" s="3">
         <v>5600</v>
       </c>
       <c r="M58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="N58" s="3">
         <v>5600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="P58" s="3">
         <v>5500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>5200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>4800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>4400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>4300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>4700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>4200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F59" s="3">
         <v>4400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>4000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>3200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F60" s="3">
         <v>10400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>10900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>10800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>11700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>11200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>15300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>14500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>13700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>12600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>11800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>11300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>10900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>9800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>11400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>11300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>8600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>7900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>10400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>9200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4290,14 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4364,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F66" s="3">
         <v>10400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>11200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>15300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>14500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>13700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>12600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>11300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>5200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-382000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-379400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-379200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-382300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-382200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-383000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-382100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-386200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-385400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-384600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-383700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-382700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-389900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-381200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-380300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-377700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-373600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-373000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-369400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-368000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-368300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-365700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-362300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-7700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-10900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-10700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-11700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-11200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-15300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-14500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-13700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-13500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-12500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-11800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-11300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-9600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-6400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-6500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-6200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-5100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-4000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-3600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-5100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,13 +5613,15 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5286,8 +5683,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +6053,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,26 +6068,26 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -5665,37 +6098,43 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-400</v>
       </c>
       <c r="R89" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-400</v>
       </c>
       <c r="T89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6159,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5749,20 +6190,20 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5776,11 +6217,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
@@ -5788,8 +6229,14 @@
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6377,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5986,14 +6445,20 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,37 +6775,43 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -6329,37 +6820,43 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>400</v>
       </c>
       <c r="R100" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>400</v>
       </c>
       <c r="T100" s="3">
+        <v>500</v>
+      </c>
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>400</v>
+      </c>
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,16 +6923,22 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -6483,15 +6986,21 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>IMUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,11 +826,11 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -886,20 +893,20 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,21 +970,21 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1032,53 +1046,53 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>300</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="3">
-        <v>100</v>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W12" s="3">
         <v>100</v>
@@ -1090,10 +1104,13 @@
         <v>100</v>
       </c>
       <c r="Z12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,40 +1183,43 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-3300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1214,42 +1234,45 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>700</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-1600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,82 +1365,86 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-3200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>-300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,73 +1452,76 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,59 +1558,59 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1700</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1589,91 +1623,97 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-700</v>
       </c>
       <c r="L21" s="3">
         <v>-700</v>
       </c>
       <c r="M21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-600</v>
       </c>
       <c r="Q21" s="3">
         <v>-600</v>
       </c>
       <c r="R21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1681,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1696,123 +1736,129 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
-      </c>
-      <c r="S22" s="3">
-        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
       </c>
       <c r="U22" s="3">
+        <v>200</v>
+      </c>
+      <c r="V22" s="3">
         <v>400</v>
-      </c>
-      <c r="V22" s="3">
-        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
       </c>
       <c r="X22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="3">
         <v>600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>1100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-800</v>
       </c>
       <c r="L23" s="3">
         <v>-800</v>
       </c>
       <c r="M23" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="N23" s="3">
         <v>-900</v>
       </c>
       <c r="O23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-800</v>
       </c>
       <c r="L26" s="3">
         <v>-800</v>
       </c>
       <c r="M26" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="N26" s="3">
         <v>-900</v>
       </c>
       <c r="O26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-800</v>
       </c>
       <c r="L27" s="3">
         <v>-800</v>
       </c>
       <c r="M27" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="N27" s="3">
         <v>-900</v>
       </c>
       <c r="O27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,59 +2482,59 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1700</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-800</v>
       </c>
       <c r="L33" s="3">
         <v>-800</v>
       </c>
       <c r="M33" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="N33" s="3">
         <v>-900</v>
       </c>
       <c r="O33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-800</v>
       </c>
       <c r="L35" s="3">
         <v>-800</v>
       </c>
       <c r="M35" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="N35" s="3">
         <v>-900</v>
       </c>
       <c r="O35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,20 +2920,21 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2900,31 +2987,34 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>100</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2700</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2940,8 +3030,8 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3098,13 +3194,13 @@
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
@@ -3118,8 +3214,8 @@
       <c r="V44" s="3">
         <v>200</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>4</v>
+      <c r="W44" s="3">
+        <v>200</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>4</v>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,23 +3303,26 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2700</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -3246,13 +3348,13 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
@@ -3267,19 +3369,22 @@
         <v>200</v>
       </c>
       <c r="W46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="3">
         <v>100</v>
       </c>
       <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3331,8 +3436,8 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
+      <c r="T47" s="3">
+        <v>0</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3372,8 +3480,8 @@
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,16 +3765,19 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,23 +3919,26 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2700</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -3838,13 +3964,13 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
@@ -3859,19 +3985,22 @@
         <v>200</v>
       </c>
       <c r="W54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="3">
         <v>100</v>
       </c>
       <c r="Z54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,13 +4056,14 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="E57" s="3">
         <v>2200</v>
@@ -3941,16 +4072,16 @@
         <v>2200</v>
       </c>
       <c r="G57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2800</v>
       </c>
       <c r="K57" s="3">
         <v>2800</v>
@@ -3959,271 +4090,283 @@
         <v>2800</v>
       </c>
       <c r="M57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N57" s="3">
         <v>2700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
         <v>4100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>5600</v>
       </c>
       <c r="O58" s="3">
         <v>5600</v>
       </c>
       <c r="P58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Q58" s="3">
         <v>5500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>5100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E60" s="3">
         <v>11300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E66" s="3">
         <v>11300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6300</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>5200</v>
       </c>
       <c r="Z66" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-380200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-382000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-379400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-379200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-382300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-382200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-383000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-382100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-386200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-385400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-384600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-383700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-382700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-389900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-381200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-380300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-377700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-373600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-373000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-369400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-368000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-368300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-365700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-362300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-7900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-7700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-11700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-11200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-15300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-14500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-13700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-13500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-12500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-11300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-10700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-9600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-6500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-800</v>
       </c>
       <c r="L81" s="3">
         <v>-800</v>
       </c>
       <c r="M81" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="N81" s="3">
         <v>-900</v>
       </c>
       <c r="O81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,16 +5813,17 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,37 +6273,40 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -6104,37 +6321,40 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-400</v>
       </c>
       <c r="V89" s="3">
         <v>-400</v>
       </c>
       <c r="W89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X89" s="3">
         <v>-700</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-500</v>
       </c>
       <c r="Y89" s="3">
         <v>-500</v>
       </c>
       <c r="Z89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6196,8 +6417,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -6205,8 +6426,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6223,8 +6444,8 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6451,14 +6681,17 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
+      <c r="Y94" s="3">
+        <v>0</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,40 +7024,43 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -6826,37 +7072,40 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
-      </c>
-      <c r="U100" s="3">
-        <v>400</v>
       </c>
       <c r="V100" s="3">
         <v>400</v>
       </c>
       <c r="W100" s="3">
+        <v>400</v>
+      </c>
+      <c r="X100" s="3">
         <v>700</v>
-      </c>
-      <c r="X100" s="3">
-        <v>600</v>
       </c>
       <c r="Y100" s="3">
         <v>600</v>
       </c>
       <c r="Z100" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,20 +7178,23 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -6992,15 +7244,18 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>IMUN</t>
   </si>
@@ -1192,7 +1192,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-300</v>
+        <v>-3500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1372,7 +1372,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>-3200</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1785,8 +1785,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>1800</v>
       </c>
       <c r="E23" s="3">
         <v>-2600</v>
@@ -2016,8 +2016,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>1800</v>
       </c>
       <c r="E26" s="3">
         <v>-2600</v>
@@ -2093,8 +2093,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>1800</v>
       </c>
       <c r="E27" s="3">
         <v>-2600</v>
@@ -2555,8 +2555,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>1800</v>
       </c>
       <c r="E33" s="3">
         <v>-2600</v>
@@ -2709,8 +2709,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>1800</v>
       </c>
       <c r="E35" s="3">
         <v>-2600</v>
@@ -5713,8 +5713,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>1800</v>
       </c>
       <c r="E81" s="3">
         <v>-2600</v>

--- a/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>IMUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,11 +833,11 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>100</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,20 +903,20 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -973,21 +983,21 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1049,53 +1063,53 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
+      <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T12" s="3">
-        <v>100</v>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X12" s="3">
         <v>100</v>
@@ -1107,10 +1121,13 @@
         <v>100</v>
       </c>
       <c r="AA12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,43 +1203,46 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>-3500</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-3300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1237,34 +1257,37 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>700</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1274,8 +1297,8 @@
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,85 +1392,89 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>-3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-3200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>-300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,76 +1482,79 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,62 +1592,62 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1700</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1637,74 +1674,77 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-700</v>
       </c>
       <c r="M21" s="3">
         <v>-700</v>
       </c>
       <c r="N21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-600</v>
       </c>
       <c r="R21" s="3">
         <v>-600</v>
       </c>
       <c r="S21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T21" s="3">
         <v>-2200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1712,11 +1752,11 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1724,13 +1764,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1739,126 +1779,132 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
-      </c>
-      <c r="T22" s="3">
-        <v>200</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
       </c>
       <c r="V22" s="3">
+        <v>200</v>
+      </c>
+      <c r="W22" s="3">
         <v>400</v>
-      </c>
-      <c r="W22" s="3">
-        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
       </c>
       <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="3">
         <v>600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>1100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-800</v>
       </c>
       <c r="M23" s="3">
         <v>-800</v>
       </c>
       <c r="N23" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="O23" s="3">
         <v>-900</v>
       </c>
       <c r="P23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-800</v>
       </c>
       <c r="M26" s="3">
         <v>-800</v>
       </c>
       <c r="N26" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="O26" s="3">
         <v>-900</v>
       </c>
       <c r="P26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-800</v>
       </c>
       <c r="M27" s="3">
         <v>-800</v>
       </c>
       <c r="N27" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="O27" s="3">
         <v>-900</v>
       </c>
       <c r="P27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,62 +2552,62 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>2300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1700</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-800</v>
       </c>
       <c r="M33" s="3">
         <v>-800</v>
       </c>
       <c r="N33" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="O33" s="3">
         <v>-900</v>
       </c>
       <c r="P33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-800</v>
       </c>
       <c r="M35" s="3">
         <v>-800</v>
       </c>
       <c r="N35" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="O35" s="3">
         <v>-900</v>
       </c>
       <c r="P35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,23 +3007,24 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2990,16 +3077,19 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
         <v>100</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3007,17 +3097,17 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2700</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3033,8 +3123,8 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3197,13 +3293,13 @@
         <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
         <v>200</v>
@@ -3217,8 +3313,8 @@
       <c r="W44" s="3">
         <v>200</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>4</v>
+      <c r="X44" s="3">
+        <v>200</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>4</v>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,26 +3405,29 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2700</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -3351,13 +3453,13 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
@@ -3372,19 +3474,22 @@
         <v>200</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="3">
         <v>100</v>
       </c>
       <c r="AA46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3439,8 +3544,8 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
+      <c r="U47" s="3">
+        <v>0</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
@@ -3460,28 +3565,31 @@
       <c r="AA47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3779,8 +3899,8 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,26 +4045,29 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2700</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -3967,13 +4093,13 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
       <c r="S54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T54" s="3">
         <v>200</v>
@@ -3988,19 +4114,22 @@
         <v>200</v>
       </c>
       <c r="X54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="3">
         <v>100</v>
       </c>
       <c r="AA54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,7 +4197,7 @@
         <v>1400</v>
       </c>
       <c r="E57" s="3">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="F57" s="3">
         <v>2200</v>
@@ -4075,16 +4206,16 @@
         <v>2200</v>
       </c>
       <c r="H57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2800</v>
       </c>
       <c r="L57" s="3">
         <v>2800</v>
@@ -4093,280 +4224,292 @@
         <v>2800</v>
       </c>
       <c r="N57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>5600</v>
       </c>
       <c r="P58" s="3">
         <v>5600</v>
       </c>
       <c r="Q58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="R58" s="3">
         <v>5500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
         <v>6800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>10400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>10900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>10400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>6800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6300</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>5200</v>
       </c>
       <c r="AA66" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-382700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-380200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-382000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-379400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-379200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-382300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-382200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-383000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-382100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-386200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-385400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-384600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-383700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-382700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-389900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-381200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-380300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-377700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-373600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-373000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-369400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-368000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-368300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-365700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-362300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-10500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-7900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-7700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-10700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-11700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-11200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-15300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-14500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-13700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-13500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-11800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-11300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-10700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-9600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-6400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-6500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-800</v>
       </c>
       <c r="M81" s="3">
         <v>-800</v>
       </c>
       <c r="N81" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="O81" s="3">
         <v>-900</v>
       </c>
       <c r="P81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5825,8 +6024,8 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,40 +6490,43 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -6324,37 +6541,40 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-400</v>
       </c>
       <c r="W89" s="3">
         <v>-400</v>
       </c>
       <c r="X89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-500</v>
       </c>
       <c r="Z89" s="3">
         <v>-500</v>
       </c>
       <c r="AA89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6420,8 +6641,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -6429,8 +6650,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6447,8 +6668,8 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6684,14 +6914,17 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
+      <c r="Z94" s="3">
+        <v>0</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,43 +7270,46 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>400</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -7075,37 +7321,40 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
-      </c>
-      <c r="V100" s="3">
-        <v>400</v>
       </c>
       <c r="W100" s="3">
         <v>400</v>
       </c>
       <c r="X100" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y100" s="3">
         <v>700</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>600</v>
       </c>
       <c r="Z100" s="3">
         <v>600</v>
       </c>
       <c r="AA100" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,23 +7430,26 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -7247,15 +7499,18 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>IMUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,14 +843,14 @@
         <v>0</v>
       </c>
       <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>100</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
       <c r="Y8" s="3">
         <v>0</v>
       </c>
@@ -856,8 +863,14 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,23 +919,23 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
+      <c r="X9" s="3">
+        <v>0</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
@@ -936,8 +949,14 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,24 +1005,24 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3">
         <v>100</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,16 +1071,18 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -1066,56 +1093,56 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3">
         <v>100</v>
-      </c>
-      <c r="V12" s="3">
-        <v>100</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
       </c>
       <c r="X12" s="3">
         <v>100</v>
       </c>
       <c r="Y12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="3">
         <v>100</v>
@@ -1124,10 +1151,16 @@
         <v>100</v>
       </c>
       <c r="AB12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,49 +1239,55 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-3500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-3300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1260,39 +1299,45 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>700</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>4</v>
@@ -1300,11 +1345,11 @@
       <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,88 +1444,96 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>-3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>-500</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>-3200</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
-      </c>
       <c r="O17" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
       </c>
       <c r="Q17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>-300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>4100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,79 +1541,85 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G18" s="3">
         <v>3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>500</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>500</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
-      </c>
       <c r="O18" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
       </c>
       <c r="Q18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-4100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,68 +1659,68 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-2300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1700</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
@@ -1663,8 +1730,14 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1677,74 +1750,80 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>900</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L21" s="3">
-        <v>4200</v>
       </c>
       <c r="M21" s="3">
         <v>-700</v>
       </c>
       <c r="N21" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-2200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-4100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-3400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-4100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1755,156 +1834,168 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>1100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-4300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-3800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-4300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-3800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-4000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-3600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-5100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,68 +2691,68 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>600</v>
+      </c>
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>2300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1700</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
@@ -2623,88 +2762,100 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-4000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-3600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-5100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-4000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-3600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-5100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,29 +3179,31 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -3080,40 +3253,46 @@
         <v>0</v>
       </c>
       <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
         <v>100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>100</v>
       </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>2600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>2700</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3126,11 +3305,11 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3296,16 +3487,16 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
         <v>100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>100</v>
-      </c>
-      <c r="T44" s="3">
-        <v>200</v>
-      </c>
-      <c r="U44" s="3">
-        <v>200</v>
       </c>
       <c r="V44" s="3">
         <v>200</v>
@@ -3316,11 +3507,11 @@
       <c r="X44" s="3">
         <v>200</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z44" s="3" t="s">
-        <v>4</v>
+      <c r="Y44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>200</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>4</v>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,32 +3605,38 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2700</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -3456,16 +3659,16 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>100</v>
-      </c>
-      <c r="T46" s="3">
-        <v>200</v>
-      </c>
-      <c r="U46" s="3">
-        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
@@ -3477,19 +3680,25 @@
         <v>200</v>
       </c>
       <c r="Y46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
         <v>100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>100</v>
       </c>
-      <c r="AB46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3547,11 +3756,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3648,31 +3863,37 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,25 +4121,31 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,32 +4293,38 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2700</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -4096,16 +4347,16 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>100</v>
-      </c>
-      <c r="T54" s="3">
-        <v>200</v>
-      </c>
-      <c r="U54" s="3">
-        <v>200</v>
       </c>
       <c r="V54" s="3">
         <v>200</v>
@@ -4117,19 +4368,25 @@
         <v>200</v>
       </c>
       <c r="Y54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z54" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3">
         <v>100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>100</v>
       </c>
-      <c r="AB54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,328 +4447,354 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2200</v>
       </c>
       <c r="H57" s="3">
         <v>2200</v>
       </c>
       <c r="I57" s="3">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="J57" s="3">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="K57" s="3">
         <v>2600</v>
       </c>
       <c r="L57" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M57" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="N57" s="3">
         <v>2800</v>
       </c>
       <c r="O57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>2000</v>
       </c>
       <c r="S57" s="3">
         <v>2100</v>
       </c>
       <c r="T57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2200</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>1700</v>
       </c>
       <c r="AA57" s="3">
         <v>1800</v>
       </c>
       <c r="AB57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AD57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>2900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>5600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>5500</v>
       </c>
       <c r="P58" s="3">
         <v>5600</v>
       </c>
       <c r="Q58" s="3">
+        <v>5500</v>
+      </c>
+      <c r="R58" s="3">
         <v>5600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="T58" s="3">
         <v>5500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>5200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>4800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>4400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>5200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>4800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>4400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>4300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>4700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>4200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>4600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>4200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>4000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>3200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>11300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>11100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>10400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>10900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>10800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>11700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>11200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>15300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>14500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>13700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>13500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>12600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>11800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>11300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>10900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>9800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>11400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>11300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>8600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>7900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>10400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>9200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>11100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>11200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>15300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>14500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>13700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>13500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>12600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>11800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>11300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>10900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>9800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>4100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>3600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>6300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>5200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-383400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-383000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-382700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-380200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-382000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-379400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-379200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-382300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-382200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-383000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-382100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-386200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-385400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-384600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-383700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-382700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-389900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-381200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-380300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-377700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-373600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-373000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-369400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-368000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-368300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-365700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-362300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-6600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-10500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-7900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-7700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-10900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-10700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-11700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-11200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-15300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-14500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-13700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-12500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-11800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-11300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-10700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-9600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-6400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-6500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-6200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-5100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-4000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-3600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-5100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,13 +6408,15 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>4</v>
@@ -6027,11 +6424,11 @@
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,47 +6920,53 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -6544,37 +6977,43 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-400</v>
       </c>
       <c r="V89" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>-400</v>
       </c>
       <c r="X89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6644,20 +7085,20 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6671,11 +7112,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>4</v>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,31 +7296,37 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -6917,14 +7376,20 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,49 +7758,55 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -7324,37 +7815,43 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>400</v>
       </c>
       <c r="V100" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>400</v>
       </c>
       <c r="X100" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA100" s="3">
         <v>700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7442,20 +7945,20 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -7502,15 +8005,21 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMUN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>IMUN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,11 +853,11 @@
         <v>0</v>
       </c>
       <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>100</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
       <c r="Z8" s="3">
         <v>0</v>
       </c>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -925,20 +932,20 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>4</v>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>4</v>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1011,21 +1021,21 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3">
         <v>100</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1082,10 +1096,10 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -1099,53 +1113,53 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W12" s="3">
-        <v>100</v>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X12" s="3">
         <v>100</v>
       </c>
       <c r="Y12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="3">
         <v>100</v>
@@ -1157,10 +1171,13 @@
         <v>100</v>
       </c>
       <c r="AD12" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE12" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,52 +1262,55 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-3500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-3300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1305,42 +1325,45 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>700</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>100</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>100</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -1351,8 +1374,8 @@
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,8 +1472,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1455,85 +1482,88 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-3200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>-300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,85 +1571,88 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-4100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1662,68 +1696,68 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
@@ -1736,16 +1770,19 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1756,79 +1793,82 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-700</v>
       </c>
       <c r="P21" s="3">
         <v>-700</v>
       </c>
       <c r="Q21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-600</v>
       </c>
       <c r="U21" s="3">
         <v>-600</v>
       </c>
       <c r="V21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W21" s="3">
         <v>-2200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-4100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1840,11 +1880,11 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1852,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1867,135 +1907,141 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
-      </c>
-      <c r="W22" s="3">
-        <v>200</v>
       </c>
       <c r="X22" s="3">
         <v>200</v>
       </c>
       <c r="Y22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z22" s="3">
         <v>400</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>100</v>
       </c>
       <c r="AA22" s="3">
         <v>100</v>
       </c>
       <c r="AB22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC22" s="3">
         <v>600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>1100</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-800</v>
       </c>
       <c r="P23" s="3">
         <v>-800</v>
       </c>
       <c r="Q23" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="R23" s="3">
         <v>-900</v>
       </c>
       <c r="S23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-5200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-800</v>
       </c>
       <c r="P26" s="3">
         <v>-800</v>
       </c>
       <c r="Q26" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="R26" s="3">
         <v>-900</v>
       </c>
       <c r="S26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-5200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-800</v>
       </c>
       <c r="P27" s="3">
         <v>-800</v>
       </c>
       <c r="Q27" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="R27" s="3">
         <v>-900</v>
       </c>
       <c r="S27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-5100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2694,68 +2764,68 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1700</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-800</v>
       </c>
       <c r="P33" s="3">
         <v>-800</v>
       </c>
       <c r="Q33" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="R33" s="3">
         <v>-900</v>
       </c>
       <c r="S33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-5100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-800</v>
       </c>
       <c r="P35" s="3">
         <v>-800</v>
       </c>
       <c r="Q35" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="R35" s="3">
         <v>-900</v>
       </c>
       <c r="S35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-5100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3190,23 +3277,23 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -3259,24 +3346,27 @@
         <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="3">
         <v>100</v>
       </c>
       <c r="AD41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -3285,17 +3375,17 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3311,8 +3401,8 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3493,13 +3589,13 @@
         <v>0</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U44" s="3">
         <v>100</v>
       </c>
       <c r="V44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W44" s="3">
         <v>200</v>
@@ -3513,8 +3609,8 @@
       <c r="Z44" s="3">
         <v>200</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>4</v>
+      <c r="AA44" s="3">
+        <v>200</v>
       </c>
       <c r="AB44" s="3" t="s">
         <v>4</v>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3620,26 +3722,26 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2700</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -3665,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
       <c r="V46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>200</v>
@@ -3686,19 +3788,22 @@
         <v>200</v>
       </c>
       <c r="AA46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="3">
         <v>100</v>
       </c>
       <c r="AD46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3762,8 +3867,8 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
+      <c r="X47" s="3">
+        <v>0</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>4</v>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3878,11 +3989,11 @@
         <v>700</v>
       </c>
       <c r="E49" s="3">
+        <v>700</v>
+      </c>
+      <c r="F49" s="3">
         <v>800</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3895,8 +4006,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4136,19 +4256,19 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4308,26 +4434,26 @@
         <v>800</v>
       </c>
       <c r="E54" s="3">
+        <v>800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2700</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -4353,13 +4479,13 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U54" s="3">
         <v>100</v>
       </c>
       <c r="V54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W54" s="3">
         <v>200</v>
@@ -4374,19 +4500,22 @@
         <v>200</v>
       </c>
       <c r="AA54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="3">
         <v>100</v>
       </c>
       <c r="AD54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,25 +4579,26 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E57" s="3">
         <v>1300</v>
       </c>
       <c r="F57" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G57" s="3">
         <v>1400</v>
       </c>
       <c r="H57" s="3">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="I57" s="3">
         <v>2200</v>
@@ -4476,16 +4607,16 @@
         <v>2200</v>
       </c>
       <c r="K57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2800</v>
       </c>
       <c r="O57" s="3">
         <v>2800</v>
@@ -4494,307 +4625,319 @@
         <v>2800</v>
       </c>
       <c r="Q57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R57" s="3">
         <v>2700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5500</v>
-      </c>
-      <c r="R58" s="3">
-        <v>5600</v>
       </c>
       <c r="S58" s="3">
         <v>5600</v>
       </c>
       <c r="T58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="U58" s="3">
         <v>5500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>4200</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>10400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>9200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,31 +5022,34 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6300</v>
-      </c>
-      <c r="AC66" s="3">
-        <v>5200</v>
       </c>
       <c r="AD66" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-383900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-383400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-383000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-382700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-380200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-382000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-379400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-379200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-382300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-382200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-383000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-382100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-386200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-385400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-384600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-383700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-382700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-389900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-381200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-380300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-377700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-373600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-373000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-369400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-368000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-368300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-365700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-362300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-6600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-7900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-7700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-10900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-10700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-11700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-11200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-15300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-13700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-13500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-12500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-11800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-11300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-10700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-9600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-6200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-5100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-5200</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-800</v>
       </c>
       <c r="P81" s="3">
         <v>-800</v>
       </c>
       <c r="Q81" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="R81" s="3">
         <v>-900</v>
       </c>
       <c r="S81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-5100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-3900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,16 +6608,17 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -6430,8 +6629,8 @@
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6935,40 +7152,40 @@
         <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -6983,37 +7200,40 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-400</v>
       </c>
       <c r="Z89" s="3">
         <v>-400</v>
       </c>
       <c r="AA89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-700</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>-500</v>
       </c>
       <c r="AC89" s="3">
         <v>-500</v>
       </c>
       <c r="AD89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7091,8 +7312,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
@@ -7100,8 +7321,8 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -7118,8 +7339,8 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
+      <c r="AA91" s="3">
+        <v>0</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>4</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,22 +7529,25 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -7328,8 +7558,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -7382,14 +7612,17 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>4</v>
+      <c r="AC94" s="3">
+        <v>0</v>
       </c>
       <c r="AD94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,52 +8007,55 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -7821,37 +8067,40 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>500</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>400</v>
       </c>
       <c r="Z100" s="3">
         <v>400</v>
       </c>
       <c r="AA100" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB100" s="3">
         <v>700</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>600</v>
       </c>
       <c r="AC100" s="3">
         <v>600</v>
       </c>
       <c r="AD100" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE100" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,32 +8185,35 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -8011,15 +8263,18 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
